--- a/Data/4CAssignmentMaster_sample.xlsx
+++ b/Data/4CAssignmentMaster_sample.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidmcmillan/Google Drive/R/4C_Quantitative Writing/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David McMillan\Google Drive\PROJECTS\4C_Quantitative Writing_Analysis in R\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="16680" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="23040" windowHeight="16680" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="stud.info" sheetId="3" r:id="rId1"/>
@@ -17,16 +17,16 @@
     <sheet name="assign.eklab" sheetId="1" r:id="rId3"/>
     <sheet name="assign.trlab" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -155,7 +155,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -507,12 +507,12 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -523,7 +523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -534,7 +534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -545,7 +545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -556,7 +556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -567,7 +567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -578,7 +578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -586,7 +586,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -594,7 +594,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -602,7 +602,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -610,7 +610,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -618,7 +618,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -626,7 +626,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -634,7 +634,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -642,7 +642,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -650,7 +650,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -658,7 +658,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -666,7 +666,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -674,7 +674,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -682,7 +682,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -690,7 +690,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -711,19 +711,19 @@
       <selection activeCell="B17" sqref="B17:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -749,7 +749,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -775,7 +775,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -801,7 +801,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -827,7 +827,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -853,7 +853,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -879,7 +879,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -905,7 +905,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -931,7 +931,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -957,7 +957,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -983,7 +983,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1278,16 +1278,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>24</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>24</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>25</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>25</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>25</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>26</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>26</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>27</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>27</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>27</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>27</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>28</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>28</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>28</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>28</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>28</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>28</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>28</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>29</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>29</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>29</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>29</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>29</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>29</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>29</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>29</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>30</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>30</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>30</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>30</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>30</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>30</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>30</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>30</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>31</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>31</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>31</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>31</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>31</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>31</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>31</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>31</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>31</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>31</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>32</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>32</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>32</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>33</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>33</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>33</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>33</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>34</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>34</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>34</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>35</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>35</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>35</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>35</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>35</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>35</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>35</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>36</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>36</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>36</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>36</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>36</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>36</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>36</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>36</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>36</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>37</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>37</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>37</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>37</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>37</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>37</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>37</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>37</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>37</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>37</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>37</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>38</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>38</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>38</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>38</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>38</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>38</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>38</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>38</v>
       </c>
@@ -4491,13 +4491,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>30</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>30</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>31</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>31</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>31</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>31</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>31</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>31</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>31</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>32</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>32</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>32</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>33</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>34</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>34</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>34</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>35</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>35</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>35</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>35</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>35</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>35</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>35</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>35</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>35</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>36</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>36</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>36</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>36</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>36</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>37</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>37</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>37</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>37</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>37</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>37</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>37</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>38</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>38</v>
       </c>
